--- a/sandbox/kt_race.xlsx
+++ b/sandbox/kt_race.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BoatRaceTrainer-host\sandbox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323B9F4-92D8-4D74-BB23-15C44638D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="1"/>
+    <workbookView xWindow="4785" yWindow="4080" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -14,12 +20,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sheet1!$A$1:$A$210</definedName>
     <definedName name="Заезд_1">Лист1!$E$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="259">
   <si>
     <t xml:space="preserve">Столбовский Артем Олегович </t>
   </si>
@@ -772,12 +789,36 @@
   </si>
   <si>
     <t>Заезд 20   17:40</t>
+  </si>
+  <si>
+    <t>Заезд Ветеранов</t>
+  </si>
+  <si>
+    <t>Ухлин Сергей Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степа Сергей Алексеевич </t>
+  </si>
+  <si>
+    <t>Касьянов Вячеслав Владимирович</t>
+  </si>
+  <si>
+    <t>Жиленко Олег Вячеславович</t>
+  </si>
+  <si>
+    <t>Анисимов Тимофей Владимирович</t>
+  </si>
+  <si>
+    <t>Шабалин Сергей Васильевич</t>
+  </si>
+  <si>
+    <t>Антонова Лариса Викторовна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -947,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,16 +1217,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,25 +1578,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="24" t="s">
         <v>204</v>
       </c>
@@ -1570,7 +1622,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -1594,7 +1646,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -1621,7 +1673,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -1654,7 +1706,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -1681,7 +1733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -1711,7 +1763,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -1738,7 +1790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -1765,7 +1817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -1789,7 +1841,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -1837,7 +1889,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -1846,7 +1898,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="e">
         <f>SUM(B2:B14)</f>
         <v>#REF!</v>
@@ -1865,7 +1917,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -1873,7 +1925,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -1888,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -1897,7 +1949,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="e">
         <f>B18+B19</f>
         <v>#REF!</v>
@@ -1909,40 +1961,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="25"/>
+    <col min="9" max="9" width="9.140625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="82"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="63" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1971,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1996,14 +2048,12 @@
       <c r="H5" s="2">
         <v>26</v>
       </c>
-      <c r="I5" s="83" t="s">
-        <v>212</v>
-      </c>
+      <c r="I5" s="82"/>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2032,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2061,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2090,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2148,17 +2198,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="65" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2187,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -2216,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -2245,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2274,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -2303,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2332,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2361,20 +2411,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B23" s="66" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="67" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2403,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2432,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -2461,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -2490,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -2519,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -2548,17 +2598,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>212</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>212</v>
       </c>
@@ -2574,7 +2624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -2603,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -2632,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -2661,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -2690,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -2719,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -2748,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -2777,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -2806,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>212</v>
       </c>
@@ -2821,12 +2871,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>212</v>
       </c>
@@ -2834,7 +2884,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>212</v>
       </c>
@@ -2842,7 +2892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -2867,11 +2917,14 @@
       <c r="H47" s="2">
         <v>60</v>
       </c>
+      <c r="I47" s="85">
+        <v>54</v>
+      </c>
       <c r="J47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -2896,11 +2949,14 @@
       <c r="H48" s="2">
         <v>55</v>
       </c>
+      <c r="I48" s="85">
+        <v>46</v>
+      </c>
       <c r="J48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3</v>
       </c>
@@ -2925,11 +2981,14 @@
       <c r="H49" s="2">
         <v>60</v>
       </c>
+      <c r="I49" s="85">
+        <v>68</v>
+      </c>
       <c r="J49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -2958,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>5</v>
       </c>
@@ -2987,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>6</v>
       </c>
@@ -3012,14 +3071,14 @@
       <c r="H52" s="2">
         <v>53</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="85">
         <v>55</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>7</v>
       </c>
@@ -3044,14 +3103,14 @@
       <c r="H53" s="2">
         <v>54</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="85">
         <v>55</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>8</v>
       </c>
@@ -3080,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>212</v>
       </c>
@@ -3092,12 +3151,12 @@
       <c r="G55" s="6"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>212</v>
       </c>
@@ -3105,7 +3164,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>212</v>
       </c>
@@ -3113,7 +3172,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -3138,14 +3197,14 @@
       <c r="H59" s="2">
         <v>53</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="85">
         <v>56</v>
       </c>
       <c r="J59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -3174,7 +3233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -3203,7 +3262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -3232,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>5</v>
       </c>
@@ -3261,7 +3320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -3290,7 +3349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -3319,7 +3378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>8</v>
       </c>
@@ -3344,19 +3403,19 @@
       <c r="H66" s="2">
         <v>54</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I66" s="85">
         <v>56</v>
       </c>
       <c r="J66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -3364,7 +3423,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>212</v>
       </c>
@@ -3372,7 +3431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -3401,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2</v>
       </c>
@@ -3426,11 +3485,14 @@
       <c r="H71" s="2">
         <v>55</v>
       </c>
+      <c r="I71" s="85">
+        <v>45</v>
+      </c>
       <c r="J71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>3</v>
       </c>
@@ -3455,11 +3517,14 @@
       <c r="H72" s="2">
         <v>57</v>
       </c>
+      <c r="I72" s="85">
+        <v>54</v>
+      </c>
       <c r="J72">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>4</v>
       </c>
@@ -3484,11 +3549,14 @@
       <c r="H73" s="2">
         <v>52</v>
       </c>
+      <c r="I73" s="85">
+        <v>52</v>
+      </c>
       <c r="J73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>5</v>
       </c>
@@ -3517,7 +3585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>6</v>
       </c>
@@ -3546,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>7</v>
       </c>
@@ -3571,24 +3639,24 @@
       <c r="H76" s="2">
         <v>52</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I76" s="85">
         <v>52</v>
       </c>
       <c r="J76">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>212</v>
       </c>
@@ -3596,7 +3664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>212</v>
       </c>
@@ -3604,7 +3672,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -3633,7 +3701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -3662,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>3</v>
       </c>
@@ -3691,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>4</v>
       </c>
@@ -3720,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>5</v>
       </c>
@@ -3749,12 +3817,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>212</v>
       </c>
@@ -3762,7 +3830,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3770,7 +3838,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -3799,7 +3867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -3828,7 +3896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3</v>
       </c>
@@ -3857,7 +3925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>4</v>
       </c>
@@ -3886,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>5</v>
       </c>
@@ -3915,18 +3983,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B95" s="27"/>
     </row>
-    <row r="96" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>212</v>
       </c>
@@ -3934,7 +4002,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>212</v>
       </c>
@@ -3942,7 +4010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -3971,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -4000,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -4029,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -4054,11 +4122,14 @@
       <c r="H101" s="2">
         <v>80</v>
       </c>
+      <c r="I101" s="85">
+        <v>80</v>
+      </c>
       <c r="J101">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -4087,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>6</v>
       </c>
@@ -4116,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>7</v>
       </c>
@@ -4141,14 +4212,14 @@
       <c r="H104" s="2">
         <v>67</v>
       </c>
-      <c r="I104" s="25">
+      <c r="I104" s="85">
         <v>65</v>
       </c>
       <c r="J104">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>8</v>
       </c>
@@ -4177,12 +4248,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
@@ -4190,7 +4261,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
@@ -4198,7 +4269,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -4227,7 +4298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -4256,7 +4327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>3</v>
       </c>
@@ -4285,7 +4356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>4</v>
       </c>
@@ -4314,7 +4385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>5</v>
       </c>
@@ -4339,11 +4410,14 @@
       <c r="H113" s="2">
         <v>60</v>
       </c>
+      <c r="I113" s="85">
+        <v>60</v>
+      </c>
       <c r="J113">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>6</v>
       </c>
@@ -4368,11 +4442,14 @@
       <c r="H114" s="2">
         <v>60</v>
       </c>
+      <c r="I114" s="85">
+        <v>62</v>
+      </c>
       <c r="J114">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>7</v>
       </c>
@@ -4397,16 +4474,19 @@
       <c r="H115" s="2">
         <v>75</v>
       </c>
+      <c r="I115" s="85">
+        <v>75</v>
+      </c>
       <c r="J115">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>212</v>
       </c>
@@ -4414,7 +4494,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>212</v>
       </c>
@@ -4422,7 +4502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -4451,7 +4531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -4476,14 +4556,14 @@
       <c r="H120" s="2">
         <v>73</v>
       </c>
-      <c r="I120" s="25">
+      <c r="I120" s="85">
         <v>78</v>
       </c>
       <c r="J120">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>3</v>
       </c>
@@ -4512,7 +4592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>4</v>
       </c>
@@ -4537,14 +4617,14 @@
       <c r="H122" s="2">
         <v>66</v>
       </c>
-      <c r="I122" s="25">
+      <c r="I122" s="85">
         <v>68</v>
       </c>
       <c r="J122">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>5</v>
       </c>
@@ -4573,7 +4653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>6</v>
       </c>
@@ -4602,7 +4682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>7</v>
       </c>
@@ -4631,7 +4711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4644,7 +4724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>212</v>
       </c>
@@ -4652,7 +4732,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>212</v>
       </c>
@@ -4660,7 +4740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4673,7 +4753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="69">
         <v>1</v>
       </c>
@@ -4702,7 +4782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="69">
         <v>2</v>
       </c>
@@ -4727,11 +4807,14 @@
       <c r="H131" s="2">
         <v>60</v>
       </c>
+      <c r="I131" s="85">
+        <v>50</v>
+      </c>
       <c r="J131">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="69">
         <v>3</v>
       </c>
@@ -4756,11 +4839,14 @@
       <c r="H132" s="2">
         <v>75</v>
       </c>
+      <c r="I132" s="85">
+        <v>60</v>
+      </c>
       <c r="J132">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="69">
         <v>4</v>
       </c>
@@ -4785,14 +4871,14 @@
       <c r="H133" s="2">
         <v>55</v>
       </c>
-      <c r="I133" s="25">
+      <c r="I133" s="85">
         <v>59</v>
       </c>
       <c r="J133">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="69">
         <v>5</v>
       </c>
@@ -4817,12 +4903,12 @@
       <c r="H134" s="39">
         <v>60</v>
       </c>
-      <c r="I134" s="84"/>
+      <c r="I134" s="90"/>
       <c r="J134" s="44">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="56" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="56" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="69">
         <v>6</v>
       </c>
@@ -4847,23 +4933,25 @@
       <c r="H135" s="50">
         <v>65</v>
       </c>
-      <c r="I135" s="85"/>
+      <c r="I135" s="86">
+        <v>90</v>
+      </c>
       <c r="J135" s="56">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="I136" s="84"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="90"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>212</v>
       </c>
@@ -4871,7 +4959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>212</v>
       </c>
@@ -4879,7 +4967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -4908,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -4937,7 +5025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>3</v>
       </c>
@@ -4966,7 +5054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>4</v>
       </c>
@@ -4995,7 +5083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>5</v>
       </c>
@@ -5024,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>6</v>
       </c>
@@ -5053,12 +5141,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>212</v>
       </c>
@@ -5066,7 +5154,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>212</v>
       </c>
@@ -5074,7 +5162,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -5103,7 +5191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -5128,14 +5216,14 @@
       <c r="H150" s="69">
         <v>56</v>
       </c>
-      <c r="I150" s="25">
+      <c r="I150" s="85">
         <v>56</v>
       </c>
       <c r="J150">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>3</v>
       </c>
@@ -5164,7 +5252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>4</v>
       </c>
@@ -5189,14 +5277,14 @@
       <c r="H152" s="2">
         <v>60</v>
       </c>
-      <c r="I152" s="25">
+      <c r="I152" s="85">
         <v>58</v>
       </c>
       <c r="J152">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>5</v>
       </c>
@@ -5225,17 +5313,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="64" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B157" s="65" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -5264,7 +5352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -5293,7 +5381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>3</v>
       </c>
@@ -5322,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>4</v>
       </c>
@@ -5347,14 +5435,14 @@
       <c r="H161" s="2">
         <v>72</v>
       </c>
-      <c r="I161" s="25">
+      <c r="I161" s="85">
         <v>75</v>
       </c>
       <c r="J161">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>5</v>
       </c>
@@ -5383,7 +5471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -5412,7 +5500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>7</v>
       </c>
@@ -5441,7 +5529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>8</v>
       </c>
@@ -5470,7 +5558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>9</v>
       </c>
@@ -5499,17 +5587,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="64" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B169" s="65" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -5538,7 +5626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>2</v>
       </c>
@@ -5567,7 +5655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>3</v>
       </c>
@@ -5596,7 +5684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>4</v>
       </c>
@@ -5621,11 +5709,14 @@
       <c r="H173" s="2">
         <v>70</v>
       </c>
+      <c r="I173" s="85">
+        <v>68</v>
+      </c>
       <c r="J173">
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>5</v>
       </c>
@@ -5650,11 +5741,14 @@
       <c r="H174" s="2">
         <v>65</v>
       </c>
+      <c r="I174" s="85">
+        <v>65</v>
+      </c>
       <c r="J174">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>6</v>
       </c>
@@ -5683,7 +5777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>7</v>
       </c>
@@ -5712,7 +5806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>8</v>
       </c>
@@ -5741,7 +5835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>212</v>
       </c>
@@ -5753,17 +5847,17 @@
       <c r="G178" s="33"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>212</v>
       </c>
@@ -5771,7 +5865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>212</v>
       </c>
@@ -5779,7 +5873,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -5808,7 +5902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>2</v>
       </c>
@@ -5837,7 +5931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>3</v>
       </c>
@@ -5866,7 +5960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>4</v>
       </c>
@@ -5895,7 +5989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>5</v>
       </c>
@@ -5924,7 +6018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>6</v>
       </c>
@@ -5949,14 +6043,14 @@
       <c r="H188" s="2">
         <v>53</v>
       </c>
-      <c r="I188" s="25">
+      <c r="I188" s="85">
         <v>55</v>
       </c>
       <c r="J188">
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>7</v>
       </c>
@@ -5985,7 +6079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>8</v>
       </c>
@@ -6014,17 +6108,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="64" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B194" s="65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -6053,7 +6147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>2</v>
       </c>
@@ -6082,7 +6176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="44" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A197" s="39">
         <v>3</v>
       </c>
@@ -6107,12 +6201,14 @@
       <c r="H197" s="39">
         <v>76</v>
       </c>
-      <c r="I197" s="84"/>
+      <c r="I197" s="90">
+        <v>84</v>
+      </c>
       <c r="J197" s="44">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="50">
         <v>4</v>
       </c>
@@ -6137,12 +6233,12 @@
       <c r="H198" s="50">
         <v>73</v>
       </c>
-      <c r="I198" s="85"/>
+      <c r="I198" s="86"/>
       <c r="J198" s="56">
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="61">
         <v>5</v>
       </c>
@@ -6167,12 +6263,12 @@
       <c r="H199" s="50">
         <v>78</v>
       </c>
-      <c r="I199" s="85"/>
+      <c r="I199" s="86"/>
       <c r="J199" s="56">
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="44" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="61">
         <v>6</v>
       </c>
@@ -6197,12 +6293,12 @@
       <c r="H200" s="45">
         <v>76</v>
       </c>
-      <c r="I200" s="84"/>
+      <c r="I200" s="90"/>
       <c r="J200" s="44">
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A201" s="61">
         <v>7</v>
       </c>
@@ -6227,11 +6323,14 @@
       <c r="H201" s="2">
         <v>70</v>
       </c>
+      <c r="I201" s="85">
+        <v>66</v>
+      </c>
       <c r="J201">
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="61">
         <v>8</v>
       </c>
@@ -6260,7 +6359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A203" s="61">
         <v>9</v>
       </c>
@@ -6289,7 +6388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="34"/>
       <c r="C204" s="35"/>
@@ -6299,17 +6398,17 @@
       <c r="G204" s="33"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="206" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="64" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B207" s="65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="50">
         <v>1</v>
       </c>
@@ -6334,12 +6433,12 @@
       <c r="H208" s="50">
         <v>59</v>
       </c>
-      <c r="I208" s="85"/>
+      <c r="I208" s="86"/>
       <c r="J208" s="56">
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="44" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A209" s="45">
         <v>2</v>
       </c>
@@ -6364,12 +6463,12 @@
       <c r="H209" s="45">
         <v>52</v>
       </c>
-      <c r="I209" s="84"/>
+      <c r="I209" s="90"/>
       <c r="J209" s="44">
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>3</v>
       </c>
@@ -6394,15 +6493,202 @@
       <c r="H210" s="2">
         <v>63</v>
       </c>
-      <c r="I210" s="25">
+      <c r="I210" s="85">
         <v>64</v>
       </c>
       <c r="J210">
         <v>20</v>
       </c>
     </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="83"/>
+      <c r="B212" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C212" s="83"/>
+      <c r="D212" s="83"/>
+      <c r="E212" s="83"/>
+      <c r="F212" s="83"/>
+      <c r="G212" s="83"/>
+      <c r="H212" s="83"/>
+      <c r="J212" s="83"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="86">
+        <v>1</v>
+      </c>
+      <c r="B213" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D213" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E213" s="86"/>
+      <c r="F213" s="86"/>
+      <c r="G213" s="86"/>
+      <c r="H213" s="86">
+        <v>90</v>
+      </c>
+      <c r="J213" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="86">
+        <v>2</v>
+      </c>
+      <c r="B214" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C214" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D214" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E214" s="86"/>
+      <c r="F214" s="86"/>
+      <c r="G214" s="86"/>
+      <c r="H214" s="86">
+        <v>82</v>
+      </c>
+      <c r="J214" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="86">
+        <v>3</v>
+      </c>
+      <c r="B215" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C215" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D215" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E215" s="86"/>
+      <c r="F215" s="86"/>
+      <c r="G215" s="86"/>
+      <c r="H215" s="86">
+        <v>89</v>
+      </c>
+      <c r="J215" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="86">
+        <v>4</v>
+      </c>
+      <c r="B216" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C216" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D216" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E216" s="86"/>
+      <c r="F216" s="86"/>
+      <c r="G216" s="86"/>
+      <c r="H216" s="86">
+        <v>100</v>
+      </c>
+      <c r="J216" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="86">
+        <v>5</v>
+      </c>
+      <c r="B217" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C217" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D217" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E217" s="86"/>
+      <c r="F217" s="86"/>
+      <c r="G217" s="86"/>
+      <c r="H217" s="86">
+        <v>74</v>
+      </c>
+      <c r="J217" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="86">
+        <v>6</v>
+      </c>
+      <c r="B218" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C218" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D218" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E218" s="86"/>
+      <c r="F218" s="86"/>
+      <c r="G218" s="86"/>
+      <c r="H218" s="86">
+        <v>95</v>
+      </c>
+      <c r="J218" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="86">
+        <v>7</v>
+      </c>
+      <c r="B219" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="C219" s="86">
+        <v>1924</v>
+      </c>
+      <c r="D219" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E219" s="86"/>
+      <c r="F219" s="86"/>
+      <c r="G219" s="86"/>
+      <c r="H219" s="86">
+        <v>25</v>
+      </c>
+      <c r="J219" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="86"/>
+      <c r="B220" s="87"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="86"/>
+      <c r="E220" s="86"/>
+      <c r="F220" s="86"/>
+      <c r="G220" s="86"/>
+      <c r="H220" s="86"/>
+      <c r="J220" s="83">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A210"/>
+  <autoFilter ref="A1:A210" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
